--- a/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54872EF2-97C6-4D7B-BC55-4C14F3264A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06D0BA1-C234-4182-8D08-79688C3C00D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,10 +14,18 @@
     <sheet name="Ver-Construção1" sheetId="3" r:id="rId4"/>
     <sheet name="Ver-Transição1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -620,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>Ambiente</t>
   </si>
@@ -985,19 +993,31 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Tudo que for feito durante o projeto como slides e outros artefatos que não possuem no SpinOff, podem ser colocados na pasta ambiente</t>
-  </si>
-  <si>
     <t>precisa nomear e especificar os casos de uso realizados no Astah</t>
   </si>
   <si>
     <t>Protótipo não foi criado</t>
   </si>
   <si>
-    <t>Faltou definir o Owner, mas foram colocados os e-mails dos membros da equipe.</t>
-  </si>
-  <si>
-    <t>Precisa complementar</t>
+    <t>Acredito que como trata-se de um TCC o Owner é um dos integrantes do grupo</t>
+  </si>
+  <si>
+    <t>Gostaria de saber se o sistema só tem um usuário, pois só tem a descrição de um.</t>
+  </si>
+  <si>
+    <t>"Referencia não é TAP"</t>
+  </si>
+  <si>
+    <t>Se foi porque não existe o Owner?</t>
+  </si>
+  <si>
+    <t>Aluisio José Galvão dos Santos (Revisão do projeto Healthy_Delivery)</t>
+  </si>
+  <si>
+    <t>Esta não é uma restrição?</t>
+  </si>
+  <si>
+    <t>GIT</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1541,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79411764705882348</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2021,7 +2041,7 @@
       </c>
       <c r="B3" s="21">
         <f>'Ver-Iniciação1'!$F$2</f>
-        <v>0.79411764705882348</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2067,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2097,7 +2117,7 @@
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="28">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
@@ -2105,7 +2125,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D49,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.79411764705882348</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2113,7 +2133,9 @@
         <v>26</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
       </c>
@@ -2148,13 +2170,11 @@
       <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -2166,9 +2186,7 @@
         <v>115</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2207,10 +2225,12 @@
       <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="33"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -2221,7 +2241,9 @@
       <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="15">
@@ -2249,7 +2271,9 @@
       <c r="D12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -2302,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -2318,11 +2342,11 @@
         <v>120</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
       <c r="A18" s="33"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -2333,7 +2357,9 @@
       <c r="D18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -2342,9 +2368,7 @@
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
@@ -2382,9 +2406,7 @@
       <c r="C22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
@@ -2397,7 +2419,7 @@
         <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2411,7 +2433,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2422,9 +2444,7 @@
       <c r="C25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
@@ -2464,9 +2484,7 @@
       <c r="C28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
@@ -2490,9 +2508,7 @@
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
@@ -2521,10 +2537,10 @@
       <c r="D32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="E32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="33"/>
@@ -2632,10 +2648,10 @@
       <c r="C40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="30">
@@ -2647,7 +2663,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2700,9 +2716,7 @@
       <c r="C45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
@@ -2715,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2743,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2759,9 +2773,7 @@
       <c r="D49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
   </sheetData>
@@ -4058,17 +4070,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4725,11 +4737,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4737,6 +4744,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06D0BA1-C234-4182-8D08-79688C3C00D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99766759-D1C7-4EBC-BC90-1D5196DD4197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="127">
   <si>
     <t>Ambiente</t>
   </si>
@@ -993,31 +993,22 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Tudo que for feito durante o projeto como slides e outros artefatos que não possuem no SpinOff, podem ser colocados na pasta ambiente</t>
+  </si>
+  <si>
     <t>precisa nomear e especificar os casos de uso realizados no Astah</t>
   </si>
   <si>
     <t>Protótipo não foi criado</t>
   </si>
   <si>
-    <t>Acredito que como trata-se de um TCC o Owner é um dos integrantes do grupo</t>
-  </si>
-  <si>
-    <t>Gostaria de saber se o sistema só tem um usuário, pois só tem a descrição de um.</t>
-  </si>
-  <si>
-    <t>"Referencia não é TAP"</t>
-  </si>
-  <si>
-    <t>Se foi porque não existe o Owner?</t>
-  </si>
-  <si>
-    <t>Aluisio José Galvão dos Santos (Revisão do projeto Healthy_Delivery)</t>
-  </si>
-  <si>
-    <t>Esta não é uma restrição?</t>
-  </si>
-  <si>
-    <t>GIT</t>
+    <t>Faltou definir o Owner, mas foram colocados os e-mails dos membros da equipe.</t>
+  </si>
+  <si>
+    <t>Precisa complementar</t>
+  </si>
+  <si>
+    <t>Aline, Felipe e Fernanda.</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1532,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2041,7 +2032,7 @@
       </c>
       <c r="B3" s="21">
         <f>'Ver-Iniciação1'!$F$2</f>
-        <v>0.7142857142857143</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2087,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2117,7 +2108,7 @@
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="28">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
@@ -2125,7 +2116,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D49,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.7142857142857143</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2134,7 +2125,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
@@ -2174,7 +2165,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -2186,7 +2177,9 @@
         <v>115</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2225,12 +2218,10 @@
       <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>125</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="33"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -2241,9 +2232,7 @@
       <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="15">
@@ -2271,9 +2260,7 @@
       <c r="D12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -2326,7 +2313,7 @@
         <v>115</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -2342,11 +2329,11 @@
         <v>120</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="15">
       <c r="A18" s="33"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -2357,9 +2344,7 @@
       <c r="D18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15">
@@ -2419,7 +2404,7 @@
         <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2433,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2537,10 +2522,10 @@
       <c r="D32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="33"/>
@@ -2649,9 +2634,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="30">
@@ -2663,7 +2646,7 @@
         <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -2729,7 +2712,7 @@
         <v>98</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2757,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2773,7 +2756,9 @@
       <c r="D49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F49" s="8"/>
     </row>
   </sheetData>
@@ -4070,17 +4055,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4737,6 +4722,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4744,11 +4734,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
+++ b/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99766759-D1C7-4EBC-BC90-1D5196DD4197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687F1AAD-8C97-4195-B004-49DCDA8E4DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -14,18 +14,10 @@
     <sheet name="Ver-Construção1" sheetId="3" r:id="rId4"/>
     <sheet name="Ver-Transição1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -628,7 +620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="131">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1002,13 +994,25 @@
     <t>Protótipo não foi criado</t>
   </si>
   <si>
-    <t>Faltou definir o Owner, mas foram colocados os e-mails dos membros da equipe.</t>
-  </si>
-  <si>
     <t>Precisa complementar</t>
   </si>
   <si>
     <t>Aline, Felipe e Fernanda.</t>
+  </si>
+  <si>
+    <t>Houve alteração no gerenciamento de funcionários e de clientes, o ADM só vai gerenciar os pedidos, os produtos e as categorias.</t>
+  </si>
+  <si>
+    <t>Complementar o casos de uso Manter Produtos</t>
+  </si>
+  <si>
+    <t>Não foram criadas novas especificações</t>
+  </si>
+  <si>
+    <t>Falta implementar alguns casos de usos</t>
+  </si>
+  <si>
+    <t>Falta complementar algumas seções</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1539,7 @@
                   <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2039,9 +2043,9 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21" t="e">
+      <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2078,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2125,7 +2129,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
@@ -2511,7 +2515,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="33"/>
       <c r="B32" s="5">
         <v>20</v>
@@ -2523,9 +2527,7 @@
         <v>119</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="33"/>
@@ -2757,7 +2759,7 @@
         <v>120</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="8"/>
     </row>
@@ -2788,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2822,9 +2824,9 @@
         <v>46</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2871,7 +2873,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="90">
       <c r="A6" s="33"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -2879,8 +2881,12 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -2901,9 +2907,13 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="33"/>
@@ -2923,8 +2933,12 @@
       <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -2935,7 +2949,9 @@
       <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -2947,7 +2963,9 @@
       <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -2959,7 +2977,9 @@
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -2981,7 +3001,9 @@
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -3003,7 +3025,9 @@
       <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -3027,8 +3051,12 @@
       <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -3039,7 +3067,9 @@
       <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -3051,7 +3081,9 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -3063,7 +3095,9 @@
       <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -3075,7 +3109,9 @@
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -3097,7 +3133,9 @@
       <c r="C25" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -3109,8 +3147,12 @@
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15">
@@ -3133,7 +3175,9 @@
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
@@ -3145,7 +3189,9 @@
       <c r="C29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
@@ -3157,7 +3203,9 @@
       <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -3169,7 +3217,9 @@
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
@@ -3181,7 +3231,9 @@
       <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
@@ -3193,7 +3245,9 @@
       <c r="C33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
@@ -3217,7 +3271,9 @@
       <c r="C35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -3229,7 +3285,9 @@
       <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -3241,7 +3299,9 @@
       <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
@@ -3253,7 +3313,9 @@
       <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -3265,7 +3327,9 @@
       <c r="C39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
@@ -3277,7 +3341,9 @@
       <c r="C40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -3301,7 +3367,9 @@
       <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -3313,7 +3381,9 @@
       <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
@@ -3325,7 +3395,9 @@
       <c r="C44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
@@ -3347,7 +3419,9 @@
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -3359,7 +3433,9 @@
       <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
@@ -3371,7 +3447,9 @@
       <c r="C48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
@@ -4055,17 +4133,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4722,11 +4800,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4734,6 +4807,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">
